--- a/biology/Histoire de la zoologie et de la botanique/Jens_Holmboe/Jens_Holmboe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jens_Holmboe/Jens_Holmboe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jens Holmboe, né le 5 mai 1880 à Tvedestrand et mort le 24 juillet 1943 à Oslo, est un botaniste norvégien qui s'est particulièrement intéressé à la géobotanique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jens Holmboe est le fils aîné de la famille nombreuse[1] du docteur Michael Holmboe (1852-1918) et de son épouse, née Eleonore Vogt (1857-1901). Son grand-père homonyme était un homme politique éminent. Il termine ses études secondaires en 1898 et reçoit la médaille d'or du prince héritier, décernée par l'université de Christiana pour son ouvrage intitulé «Planterester i norske Torvmyrer[2]» (1902). Il est nommé en 1902 assistant de botanique à l'université de Christiana et en 1906, conservateur du muséum de Bergen. Il fait plusieurs expéditions botaniques en Norvège et l'une à Chypre en 1905 à propos de laquelle il publie plus tard, en 1914, une étude sur la végétation[3]. Il épouse en 1907 Laura Lie (1879-1972). Il est nommé en 1914 professeur de botanique à l'université et devient aussitôt professeur au muséum de Bergen. En 1925, il retourne enseigner à l'université d'Oslo tout en dirigeant le jardin botanique de l'université.
-Il édite de 1906 à 1925 la revue scientifique Naturen consacrée aux sciences naturelles. Il publie régulièrement, dont son œuvre maîtresse « Våre ville planter[4] », en six volumes avec la collaboration de Torstein Lagerberg de 1937 à 1940. Une seconde édition paraît de 1950 à 1955.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jens Holmboe est le fils aîné de la famille nombreuse du docteur Michael Holmboe (1852-1918) et de son épouse, née Eleonore Vogt (1857-1901). Son grand-père homonyme était un homme politique éminent. Il termine ses études secondaires en 1898 et reçoit la médaille d'or du prince héritier, décernée par l'université de Christiana pour son ouvrage intitulé «Planterester i norske Torvmyrer» (1902). Il est nommé en 1902 assistant de botanique à l'université de Christiana et en 1906, conservateur du muséum de Bergen. Il fait plusieurs expéditions botaniques en Norvège et l'une à Chypre en 1905 à propos de laquelle il publie plus tard, en 1914, une étude sur la végétation. Il épouse en 1907 Laura Lie (1879-1972). Il est nommé en 1914 professeur de botanique à l'université et devient aussitôt professeur au muséum de Bergen. En 1925, il retourne enseigner à l'université d'Oslo tout en dirigeant le jardin botanique de l'université.
+Il édite de 1906 à 1925 la revue scientifique Naturen consacrée aux sciences naturelles. Il publie régulièrement, dont son œuvre maîtresse « Våre ville planter », en six volumes avec la collaboration de Torstein Lagerberg de 1937 à 1940. Une seconde édition paraît de 1950 à 1955.
 Jens Holmboe est élu à l'âge de trente ans à l'académie norvégienne des sciences et des lettres en 1910. Il est fait commandeur de l'ordre de Vasa et chevalier de l'ordre royal de l'Étoile polaire.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Asteraceae) Taraxacum holmboei H.Lindb.[5]
-(Rubiaceae) Coprosma holmboei (Christoph.) Heads[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Asteraceae) Taraxacum holmboei H.Lindb.
+(Rubiaceae) Coprosma holmboei (Christoph.) Heads</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Undersøgelser over norske ferskvandsdiatoméer, 1899 (først trykt i Arkiv for Mathematik og Naturvidenskab 1898)
 To torvmyrprofiler fra Kristiania omegn, Geologiska Föreningen i Stockholm, Förhandlingar, 22 nr. 1, Stockholm 1900
